--- a/data/pca/factorExposure/factorExposure_2015-03-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01662280909527966</v>
+        <v>0.01038846603938337</v>
       </c>
       <c r="C2">
-        <v>-0.0347234058931515</v>
+        <v>0.05284150626716626</v>
       </c>
       <c r="D2">
-        <v>-0.1325787809207122</v>
+        <v>-0.1061727744305167</v>
       </c>
       <c r="E2">
-        <v>-0.07139149593973919</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.06593522390745668</v>
+      </c>
+      <c r="F2">
+        <v>0.03651007962957323</v>
+      </c>
+      <c r="G2">
+        <v>-0.142800582485624</v>
+      </c>
+      <c r="H2">
+        <v>-0.06316254433459273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04445641821103127</v>
+        <v>0.0203953697893897</v>
       </c>
       <c r="C4">
-        <v>-0.07910320194503016</v>
+        <v>0.1146136129752629</v>
       </c>
       <c r="D4">
-        <v>-0.09309913456233335</v>
+        <v>-0.1035165269092885</v>
       </c>
       <c r="E4">
-        <v>-0.1241442539089305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.06984088349893566</v>
+      </c>
+      <c r="F4">
+        <v>0.09012375058311989</v>
+      </c>
+      <c r="G4">
+        <v>-0.01955689490340151</v>
+      </c>
+      <c r="H4">
+        <v>0.07183448433218655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02867990320283015</v>
+        <v>0.03400335336654214</v>
       </c>
       <c r="C6">
-        <v>-0.02127674009099909</v>
+        <v>0.03865744518288632</v>
       </c>
       <c r="D6">
-        <v>-0.1012680746355428</v>
+        <v>-0.08374776597815967</v>
       </c>
       <c r="E6">
-        <v>-0.08359840076795838</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.09719971417705398</v>
+      </c>
+      <c r="F6">
+        <v>0.0392647333247727</v>
+      </c>
+      <c r="G6">
+        <v>0.002459747587290647</v>
+      </c>
+      <c r="H6">
+        <v>-0.01035701505224536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.004318189136227051</v>
+        <v>0.006191999683533191</v>
       </c>
       <c r="C7">
-        <v>-0.02713149452354242</v>
+        <v>0.04211278613567168</v>
       </c>
       <c r="D7">
-        <v>-0.09237489883866996</v>
+        <v>-0.07707365144478008</v>
       </c>
       <c r="E7">
-        <v>-0.05052215485688744</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.08917757478346493</v>
+      </c>
+      <c r="F7">
+        <v>0.01292791587054861</v>
+      </c>
+      <c r="G7">
+        <v>0.008494125544283904</v>
+      </c>
+      <c r="H7">
+        <v>0.0276444531732446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-5.398641515673079e-05</v>
+        <v>-0.005186726725280148</v>
       </c>
       <c r="C8">
-        <v>-0.02909296416569107</v>
+        <v>0.03778976095068255</v>
       </c>
       <c r="D8">
-        <v>-0.07068253311510164</v>
+        <v>-0.05435998854771652</v>
       </c>
       <c r="E8">
-        <v>-0.0673936558645368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.05667022209925237</v>
+      </c>
+      <c r="F8">
+        <v>0.05045178628085936</v>
+      </c>
+      <c r="G8">
+        <v>-0.07340887293554599</v>
+      </c>
+      <c r="H8">
+        <v>0.03775504084574013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03318495970087992</v>
+        <v>0.01410611974481503</v>
       </c>
       <c r="C9">
-        <v>-0.06912232158793143</v>
+        <v>0.09413550462375372</v>
       </c>
       <c r="D9">
-        <v>-0.09683851874181409</v>
+        <v>-0.08958780526358634</v>
       </c>
       <c r="E9">
-        <v>-0.1027860647808716</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.06130525598578181</v>
+      </c>
+      <c r="F9">
+        <v>0.05984356073138211</v>
+      </c>
+      <c r="G9">
+        <v>-0.002825554291716275</v>
+      </c>
+      <c r="H9">
+        <v>0.0255256665280747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1974341998989893</v>
+        <v>0.2446336952494131</v>
       </c>
       <c r="C10">
-        <v>0.1560613262072447</v>
+        <v>-0.09296250377109981</v>
       </c>
       <c r="D10">
-        <v>0.03933306765652</v>
+        <v>0.008769385472965366</v>
       </c>
       <c r="E10">
-        <v>-0.02687119648900184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02157284944473744</v>
+      </c>
+      <c r="F10">
+        <v>0.04485885916887932</v>
+      </c>
+      <c r="G10">
+        <v>0.009157759197371178</v>
+      </c>
+      <c r="H10">
+        <v>-0.002116334915171635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01221731794072276</v>
+        <v>0.010055265085327</v>
       </c>
       <c r="C11">
-        <v>-0.04319337756966658</v>
+        <v>0.06137257426702313</v>
       </c>
       <c r="D11">
-        <v>-0.03921676011091852</v>
+        <v>-0.03105182123377866</v>
       </c>
       <c r="E11">
-        <v>0.006051121961038814</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.04217725012044475</v>
+      </c>
+      <c r="F11">
+        <v>-0.01059656755040819</v>
+      </c>
+      <c r="G11">
+        <v>0.0009729918828671853</v>
+      </c>
+      <c r="H11">
+        <v>0.02169785484693806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01066551772798243</v>
+        <v>0.01022232185863234</v>
       </c>
       <c r="C12">
-        <v>-0.04275992963390182</v>
+        <v>0.05145999263912174</v>
       </c>
       <c r="D12">
-        <v>-0.05458336805977704</v>
+        <v>-0.04036276736819219</v>
       </c>
       <c r="E12">
-        <v>-0.01547800284234751</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0370385890751204</v>
+      </c>
+      <c r="F12">
+        <v>-0.01122670412895692</v>
+      </c>
+      <c r="G12">
+        <v>0.01093119452254994</v>
+      </c>
+      <c r="H12">
+        <v>-0.01543600113595998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007974869918223644</v>
+        <v>0.004212477064327941</v>
       </c>
       <c r="C13">
-        <v>-0.03119859069677603</v>
+        <v>0.06070566648450228</v>
       </c>
       <c r="D13">
-        <v>-0.1229964877918614</v>
+        <v>-0.139710446470741</v>
       </c>
       <c r="E13">
-        <v>-0.09550457386006121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.09417478238695891</v>
+      </c>
+      <c r="F13">
+        <v>0.04123082719669353</v>
+      </c>
+      <c r="G13">
+        <v>-0.05930607457240514</v>
+      </c>
+      <c r="H13">
+        <v>-0.07544434192400304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01348283612072787</v>
+        <v>0.001448744878667577</v>
       </c>
       <c r="C14">
-        <v>-0.01855741209629859</v>
+        <v>0.03339829500745237</v>
       </c>
       <c r="D14">
-        <v>-0.0656896460315208</v>
+        <v>-0.07641072823616474</v>
       </c>
       <c r="E14">
-        <v>-0.04446904039299308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.0978530304473645</v>
+      </c>
+      <c r="F14">
+        <v>0.03418046866786151</v>
+      </c>
+      <c r="G14">
+        <v>-0.01505473385375538</v>
+      </c>
+      <c r="H14">
+        <v>-0.0288789548051726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003240501404874774</v>
+        <v>-0.003991690814135433</v>
       </c>
       <c r="C15">
-        <v>-0.01271660612435394</v>
+        <v>0.03074013610053282</v>
       </c>
       <c r="D15">
-        <v>-0.04780329460620168</v>
+        <v>-0.05673734786611741</v>
       </c>
       <c r="E15">
-        <v>-0.02061986931675642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.0454937967768128</v>
+      </c>
+      <c r="F15">
+        <v>0.009128836153170337</v>
+      </c>
+      <c r="G15">
+        <v>-0.02503766000430104</v>
+      </c>
+      <c r="H15">
+        <v>0.0136114574704888</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0115617575945909</v>
+        <v>0.009218135095412965</v>
       </c>
       <c r="C16">
-        <v>-0.04025446091730334</v>
+        <v>0.05319898502898922</v>
       </c>
       <c r="D16">
-        <v>-0.0424459247392628</v>
+        <v>-0.03435781705812745</v>
       </c>
       <c r="E16">
-        <v>-0.00646121130923558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.04073172518909231</v>
+      </c>
+      <c r="F16">
+        <v>-0.006999728806457605</v>
+      </c>
+      <c r="G16">
+        <v>0.01412887393788268</v>
+      </c>
+      <c r="H16">
+        <v>0.009625446982262404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.003277994201021611</v>
+        <v>-0.003736891504284745</v>
       </c>
       <c r="C19">
-        <v>-0.021975797212239</v>
+        <v>0.01612386709396788</v>
       </c>
       <c r="D19">
-        <v>-0.05767362311168771</v>
+        <v>-0.03282770539226135</v>
       </c>
       <c r="E19">
-        <v>-0.03949146959775991</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.006355582312854565</v>
+      </c>
+      <c r="F19">
+        <v>0.00764337677643756</v>
+      </c>
+      <c r="G19">
+        <v>-0.01752428404448193</v>
+      </c>
+      <c r="H19">
+        <v>-0.01379617808582987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0003578370512084692</v>
+        <v>0.00443220288159287</v>
       </c>
       <c r="C20">
-        <v>-0.02893745316085103</v>
+        <v>0.04593044993960629</v>
       </c>
       <c r="D20">
-        <v>-0.0625977398631351</v>
+        <v>-0.06967614584769656</v>
       </c>
       <c r="E20">
-        <v>-0.06056311810638641</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.05770365691295893</v>
+      </c>
+      <c r="F20">
+        <v>0.02250032616695475</v>
+      </c>
+      <c r="G20">
+        <v>0.01203323038248212</v>
+      </c>
+      <c r="H20">
+        <v>0.03160487810618477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001247064833195082</v>
+        <v>0.00226973577618078</v>
       </c>
       <c r="C21">
-        <v>-0.03412827844986751</v>
+        <v>0.04603612150691484</v>
       </c>
       <c r="D21">
-        <v>-0.1017120852069118</v>
+        <v>-0.1003696543916316</v>
       </c>
       <c r="E21">
-        <v>-0.134546377767823</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0743166382737204</v>
+      </c>
+      <c r="F21">
+        <v>0.09775636399218271</v>
+      </c>
+      <c r="G21">
+        <v>-0.06615841833816971</v>
+      </c>
+      <c r="H21">
+        <v>-0.08689481323557295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001879932761083348</v>
+        <v>-0.007727970531228388</v>
       </c>
       <c r="C22">
-        <v>-0.0550492881909876</v>
+        <v>0.08465622825941498</v>
       </c>
       <c r="D22">
-        <v>-0.2039520421865061</v>
+        <v>-0.2120392976554641</v>
       </c>
       <c r="E22">
-        <v>-0.117027739116429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.08231248723861694</v>
+      </c>
+      <c r="F22">
+        <v>0.04286509156818012</v>
+      </c>
+      <c r="G22">
+        <v>-0.2424135149467253</v>
+      </c>
+      <c r="H22">
+        <v>0.1143092423859305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.002309804458265788</v>
+        <v>-0.004609554512031024</v>
       </c>
       <c r="C23">
-        <v>-0.05543738306864512</v>
+        <v>0.08676775952904539</v>
       </c>
       <c r="D23">
-        <v>-0.2028229323449158</v>
+        <v>-0.2153173528162724</v>
       </c>
       <c r="E23">
-        <v>-0.1169720508955895</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.07948163380637446</v>
+      </c>
+      <c r="F23">
+        <v>0.04561545559346522</v>
+      </c>
+      <c r="G23">
+        <v>-0.2360178679357649</v>
+      </c>
+      <c r="H23">
+        <v>0.1080038511634863</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0175100851107513</v>
+        <v>0.01077598722476649</v>
       </c>
       <c r="C24">
-        <v>-0.06139046050873506</v>
+        <v>0.07103828626536628</v>
       </c>
       <c r="D24">
-        <v>-0.05803267217835985</v>
+        <v>-0.03495445422792964</v>
       </c>
       <c r="E24">
-        <v>-0.0146037365066388</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.05185774362910309</v>
+      </c>
+      <c r="F24">
+        <v>-0.005487235981333574</v>
+      </c>
+      <c r="G24">
+        <v>-0.004840621859147031</v>
+      </c>
+      <c r="H24">
+        <v>0.01317642755805457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01666300003243344</v>
+        <v>0.01448984568371193</v>
       </c>
       <c r="C25">
-        <v>-0.05329411233936888</v>
+        <v>0.06525394220087158</v>
       </c>
       <c r="D25">
-        <v>-0.04481293579851899</v>
+        <v>-0.03759495181754959</v>
       </c>
       <c r="E25">
-        <v>-0.01517973085438266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03434189489622887</v>
+      </c>
+      <c r="F25">
+        <v>-0.003657621761492547</v>
+      </c>
+      <c r="G25">
+        <v>0.009566773657902952</v>
+      </c>
+      <c r="H25">
+        <v>0.009855345702695794</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005074312523840657</v>
+        <v>0.01676118286884509</v>
       </c>
       <c r="C26">
-        <v>-0.019856693119102</v>
+        <v>0.03282550333550353</v>
       </c>
       <c r="D26">
-        <v>-0.05517486386944787</v>
+        <v>-0.04422345707723883</v>
       </c>
       <c r="E26">
-        <v>-0.04623903825019079</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.07299534669031418</v>
+      </c>
+      <c r="F26">
+        <v>0.04914818900152327</v>
+      </c>
+      <c r="G26">
+        <v>-0.02808428120546682</v>
+      </c>
+      <c r="H26">
+        <v>-0.001159159933698672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2783778145128448</v>
+        <v>0.3132098636370245</v>
       </c>
       <c r="C28">
-        <v>0.1669652320811362</v>
+        <v>-0.08912521747853634</v>
       </c>
       <c r="D28">
-        <v>0.007766052149457978</v>
+        <v>0.0090098270264737</v>
       </c>
       <c r="E28">
-        <v>-0.03238448385104949</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05408385250915681</v>
+      </c>
+      <c r="F28">
+        <v>0.04731914993702768</v>
+      </c>
+      <c r="G28">
+        <v>-0.05935703858928043</v>
+      </c>
+      <c r="H28">
+        <v>0.02046954217700699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.004899590441266031</v>
+        <v>0.001267468653329374</v>
       </c>
       <c r="C29">
-        <v>-0.02247875156461717</v>
+        <v>0.03989186365199171</v>
       </c>
       <c r="D29">
-        <v>-0.06678953349081401</v>
+        <v>-0.08233845554616334</v>
       </c>
       <c r="E29">
-        <v>-0.05477419194754068</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.1096680881733429</v>
+      </c>
+      <c r="F29">
+        <v>0.03808234298311595</v>
+      </c>
+      <c r="G29">
+        <v>-0.009515307954062135</v>
+      </c>
+      <c r="H29">
+        <v>-0.0388684713279133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0260572478117157</v>
+        <v>0.0172433192925082</v>
       </c>
       <c r="C30">
-        <v>-0.07507421683870255</v>
+        <v>0.09995543968123104</v>
       </c>
       <c r="D30">
-        <v>-0.1414216294920728</v>
+        <v>-0.1064130180911509</v>
       </c>
       <c r="E30">
-        <v>-0.07862419642354185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.09936577489965755</v>
+      </c>
+      <c r="F30">
+        <v>0.01489307473823683</v>
+      </c>
+      <c r="G30">
+        <v>-0.02131576757326151</v>
+      </c>
+      <c r="H30">
+        <v>0.04684338677792795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03158447809577435</v>
+        <v>0.01052172066304059</v>
       </c>
       <c r="C31">
-        <v>-0.08512938616183045</v>
+        <v>0.095300084513987</v>
       </c>
       <c r="D31">
-        <v>-0.04891573191004308</v>
+        <v>-0.02671604184506541</v>
       </c>
       <c r="E31">
-        <v>-0.02935819542105759</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02848121650899067</v>
+      </c>
+      <c r="F31">
+        <v>0.01856427370927071</v>
+      </c>
+      <c r="G31">
+        <v>-0.01927854353142847</v>
+      </c>
+      <c r="H31">
+        <v>0.006129919188019172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01534902213942925</v>
+        <v>0.01401402266089592</v>
       </c>
       <c r="C32">
-        <v>-0.04270303743460448</v>
+        <v>0.05128192130785329</v>
       </c>
       <c r="D32">
-        <v>-0.08198877144643868</v>
+        <v>-0.0781107779720113</v>
       </c>
       <c r="E32">
-        <v>-0.08432356942994478</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01784544968568713</v>
+      </c>
+      <c r="F32">
+        <v>0.04792811770273552</v>
+      </c>
+      <c r="G32">
+        <v>-0.02714366160764369</v>
+      </c>
+      <c r="H32">
+        <v>-0.02710429052803605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.00377539525820745</v>
+        <v>0.007033439974994853</v>
       </c>
       <c r="C33">
-        <v>-0.04280881510021378</v>
+        <v>0.06555469400510092</v>
       </c>
       <c r="D33">
-        <v>-0.09721850400646594</v>
+        <v>-0.09792065460716444</v>
       </c>
       <c r="E33">
-        <v>-0.07508718789241495</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.07406631868157841</v>
+      </c>
+      <c r="F33">
+        <v>0.03091803397812199</v>
+      </c>
+      <c r="G33">
+        <v>-0.009596646015623211</v>
+      </c>
+      <c r="H33">
+        <v>0.0001060777528252988</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01372086134919562</v>
+        <v>0.008861254991662525</v>
       </c>
       <c r="C34">
-        <v>-0.06153362309520408</v>
+        <v>0.0627928342982933</v>
       </c>
       <c r="D34">
-        <v>-0.05296479823775528</v>
+        <v>-0.01696325454896709</v>
       </c>
       <c r="E34">
-        <v>0.03137219745100253</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03681679734195268</v>
+      </c>
+      <c r="F34">
+        <v>-0.03807224937203008</v>
+      </c>
+      <c r="G34">
+        <v>-0.005437169182220037</v>
+      </c>
+      <c r="H34">
+        <v>-0.001360341143072929</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0002242522955181904</v>
+        <v>0.004311639656547094</v>
       </c>
       <c r="C35">
-        <v>-0.0009283083435540501</v>
+        <v>0.01602877687421878</v>
       </c>
       <c r="D35">
-        <v>-0.001051330926776078</v>
+        <v>-0.03120711675428264</v>
       </c>
       <c r="E35">
-        <v>2.118273123465489e-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.0275844262786291</v>
+      </c>
+      <c r="F35">
+        <v>0.0213672333650675</v>
+      </c>
+      <c r="G35">
+        <v>0.0004392694636678897</v>
+      </c>
+      <c r="H35">
+        <v>-0.004768438662513916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005803066988803232</v>
+        <v>0.01106542617101401</v>
       </c>
       <c r="C36">
-        <v>-0.01059171653324351</v>
+        <v>0.02515291669078408</v>
       </c>
       <c r="D36">
-        <v>-0.05579907011140591</v>
+        <v>-0.05673257902860838</v>
       </c>
       <c r="E36">
-        <v>-0.06857514009376273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.06287881574523342</v>
+      </c>
+      <c r="F36">
+        <v>0.05020573945543549</v>
+      </c>
+      <c r="G36">
+        <v>-0.01352043410764766</v>
+      </c>
+      <c r="H36">
+        <v>-0.0005571626787440794</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001069535569822211</v>
+        <v>0.008629430718527897</v>
       </c>
       <c r="C38">
-        <v>-0.009627216568328868</v>
+        <v>0.02933265148421699</v>
       </c>
       <c r="D38">
-        <v>-0.08467013242302644</v>
+        <v>-0.07999085385742485</v>
       </c>
       <c r="E38">
-        <v>-0.04287879422638761</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.05331843928402642</v>
+      </c>
+      <c r="F38">
+        <v>0.01032112888168847</v>
+      </c>
+      <c r="G38">
+        <v>-0.0316707053671788</v>
+      </c>
+      <c r="H38">
+        <v>0.03958698715060811</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01158747685406625</v>
+        <v>0.006197695679180332</v>
       </c>
       <c r="C39">
-        <v>-0.06337849816269399</v>
+        <v>0.0895521217474216</v>
       </c>
       <c r="D39">
-        <v>-0.09991124494800163</v>
+        <v>-0.07283130291257393</v>
       </c>
       <c r="E39">
-        <v>-0.03375600659410116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.09234896853825801</v>
+      </c>
+      <c r="F39">
+        <v>-0.007298714289093515</v>
+      </c>
+      <c r="G39">
+        <v>-0.002930255038448924</v>
+      </c>
+      <c r="H39">
+        <v>0.0105827371807738</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01425083054935786</v>
+        <v>0.01280228394292553</v>
       </c>
       <c r="C40">
-        <v>-0.02798619600704471</v>
+        <v>0.04256199176149289</v>
       </c>
       <c r="D40">
-        <v>-0.1110372920131435</v>
+        <v>-0.07600687615805096</v>
       </c>
       <c r="E40">
-        <v>-0.03267512375746227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.0736839829010756</v>
+      </c>
+      <c r="F40">
+        <v>-0.02310957108475823</v>
+      </c>
+      <c r="G40">
+        <v>-0.08429484105914721</v>
+      </c>
+      <c r="H40">
+        <v>-0.0170820557169082</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.007308310212181725</v>
+        <v>0.01701963797542377</v>
       </c>
       <c r="C41">
-        <v>-0.007400489168490903</v>
+        <v>0.02454652362753005</v>
       </c>
       <c r="D41">
-        <v>-0.02550487565761355</v>
+        <v>-0.03696430277694956</v>
       </c>
       <c r="E41">
-        <v>-0.02978323275401775</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.02226801767546095</v>
+      </c>
+      <c r="F41">
+        <v>0.02058160664295671</v>
+      </c>
+      <c r="G41">
+        <v>-0.007463566235278709</v>
+      </c>
+      <c r="H41">
+        <v>0.005028672853034833</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003505103120474189</v>
+        <v>0.00881428107119242</v>
       </c>
       <c r="C43">
-        <v>-0.002048076490501158</v>
+        <v>0.01713033073574803</v>
       </c>
       <c r="D43">
-        <v>-0.03910927058897818</v>
+        <v>-0.0465000146823412</v>
       </c>
       <c r="E43">
-        <v>-0.03648662969451039</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.03471216715987269</v>
+      </c>
+      <c r="F43">
+        <v>0.02438954992290351</v>
+      </c>
+      <c r="G43">
+        <v>-0.003496432300004086</v>
+      </c>
+      <c r="H43">
+        <v>0.01966056074479823</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0178971760170979</v>
+        <v>0.009681238607881441</v>
       </c>
       <c r="C44">
-        <v>-0.03058080159851978</v>
+        <v>0.05184484188743841</v>
       </c>
       <c r="D44">
-        <v>-0.08898018334345668</v>
+        <v>-0.08664189283545866</v>
       </c>
       <c r="E44">
-        <v>-0.09139357000326939</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.08337726826597483</v>
+      </c>
+      <c r="F44">
+        <v>0.03714615494372905</v>
+      </c>
+      <c r="G44">
+        <v>-0.04134626718905378</v>
+      </c>
+      <c r="H44">
+        <v>0.02598266168204534</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.000399839164822821</v>
+        <v>-0.001377302761282979</v>
       </c>
       <c r="C46">
-        <v>-0.03291940897830085</v>
+        <v>0.0435550658625624</v>
       </c>
       <c r="D46">
-        <v>-0.07421206562665002</v>
+        <v>-0.05596627052340423</v>
       </c>
       <c r="E46">
-        <v>-0.05128918023818691</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.08735564266327786</v>
+      </c>
+      <c r="F46">
+        <v>0.03580211565887668</v>
+      </c>
+      <c r="G46">
+        <v>-0.02465279734845379</v>
+      </c>
+      <c r="H46">
+        <v>7.80204045715565e-05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06584146328420411</v>
+        <v>0.03050538972544042</v>
       </c>
       <c r="C47">
-        <v>-0.1144471934932391</v>
+        <v>0.1244689323607386</v>
       </c>
       <c r="D47">
-        <v>-0.05791512581948387</v>
+        <v>-0.02271911734509327</v>
       </c>
       <c r="E47">
-        <v>-0.03348524937276051</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.004130533855351505</v>
+      </c>
+      <c r="F47">
+        <v>-0.0004831753132493955</v>
+      </c>
+      <c r="G47">
+        <v>0.01638161825742923</v>
+      </c>
+      <c r="H47">
+        <v>0.01224450555894916</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004243371944928145</v>
+        <v>0.01237043093716378</v>
       </c>
       <c r="C48">
-        <v>-0.01748955692807466</v>
+        <v>0.03409392932363039</v>
       </c>
       <c r="D48">
-        <v>-0.05838988855152565</v>
+        <v>-0.06093631740113271</v>
       </c>
       <c r="E48">
-        <v>-0.07296383034116195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.06139025442124788</v>
+      </c>
+      <c r="F48">
+        <v>0.05844584269095039</v>
+      </c>
+      <c r="G48">
+        <v>-0.02049869620582371</v>
+      </c>
+      <c r="H48">
+        <v>0.01394334461590576</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.001955285426443878</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.001971544836645692</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.002910486018516812</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.000624112311970157</v>
+      </c>
+      <c r="F49">
+        <v>-0.002574725179683496</v>
+      </c>
+      <c r="G49">
+        <v>0.006477644185637161</v>
+      </c>
+      <c r="H49">
+        <v>-0.004207455878352651</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03056238289930723</v>
+        <v>0.014522406355754</v>
       </c>
       <c r="C50">
-        <v>-0.05873475086085649</v>
+        <v>0.07632943945181259</v>
       </c>
       <c r="D50">
-        <v>-0.05874946369082991</v>
+        <v>-0.03976060476541186</v>
       </c>
       <c r="E50">
-        <v>-0.02440164708048633</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.0349217740421568</v>
+      </c>
+      <c r="F50">
+        <v>0.009624541951032996</v>
+      </c>
+      <c r="G50">
+        <v>-0.01822789697517043</v>
+      </c>
+      <c r="H50">
+        <v>0.01658844862911724</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004839256317101952</v>
+        <v>-0.004548806725489457</v>
       </c>
       <c r="C51">
-        <v>-0.005944042272529887</v>
+        <v>0.01830622314643173</v>
       </c>
       <c r="D51">
-        <v>-0.05628157580807156</v>
+        <v>-0.0372736944173985</v>
       </c>
       <c r="E51">
-        <v>-0.04194267831673081</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.06044618813401225</v>
+      </c>
+      <c r="F51">
+        <v>0.03833576425315044</v>
+      </c>
+      <c r="G51">
+        <v>-0.04693005766373389</v>
+      </c>
+      <c r="H51">
+        <v>-0.002801652536334612</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1020458904135506</v>
+        <v>0.05929543535382581</v>
       </c>
       <c r="C53">
-        <v>-0.1370970841001814</v>
+        <v>0.1636493581864287</v>
       </c>
       <c r="D53">
-        <v>2.845717881549557e-05</v>
+        <v>0.01780171642811178</v>
       </c>
       <c r="E53">
-        <v>-0.0389575956153214</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02519045635138853</v>
+      </c>
+      <c r="F53">
+        <v>0.04085297906862013</v>
+      </c>
+      <c r="G53">
+        <v>-0.008025581494912162</v>
+      </c>
+      <c r="H53">
+        <v>0.005570926219691685</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004493705730445648</v>
+        <v>0.01052499016291746</v>
       </c>
       <c r="C54">
-        <v>-0.02438728918174491</v>
+        <v>0.04093806604400232</v>
       </c>
       <c r="D54">
-        <v>-0.08401741246356477</v>
+        <v>-0.06876093379774074</v>
       </c>
       <c r="E54">
-        <v>-0.04233499177223293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.05282488377693817</v>
+      </c>
+      <c r="F54">
+        <v>0.01052744693764377</v>
+      </c>
+      <c r="G54">
+        <v>-0.02588960157962773</v>
+      </c>
+      <c r="H54">
+        <v>0.02715907882299503</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08439450699947974</v>
+        <v>0.04194407301596436</v>
       </c>
       <c r="C55">
-        <v>-0.113370937353666</v>
+        <v>0.1287541326085538</v>
       </c>
       <c r="D55">
-        <v>-0.003296731744499616</v>
+        <v>0.04489376821039699</v>
       </c>
       <c r="E55">
-        <v>0.005619524670598919</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.00848956248320942</v>
+      </c>
+      <c r="F55">
+        <v>0.002595288476349642</v>
+      </c>
+      <c r="G55">
+        <v>-0.0183969137207623</v>
+      </c>
+      <c r="H55">
+        <v>-0.00419080628232203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1229225993825473</v>
+        <v>0.05903161357137338</v>
       </c>
       <c r="C56">
-        <v>-0.1642996307253753</v>
+        <v>0.1940193442457042</v>
       </c>
       <c r="D56">
-        <v>-0.02419403805132301</v>
+        <v>0.04193044869722467</v>
       </c>
       <c r="E56">
-        <v>0.01158465770266348</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03516831855677533</v>
+      </c>
+      <c r="F56">
+        <v>0.002304549670506053</v>
+      </c>
+      <c r="G56">
+        <v>-0.07020169953721224</v>
+      </c>
+      <c r="H56">
+        <v>0.001587773310614984</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003192230079280084</v>
+        <v>0.008822505160060459</v>
       </c>
       <c r="C58">
-        <v>-0.02253485119901522</v>
+        <v>0.06950356757034984</v>
       </c>
       <c r="D58">
-        <v>-0.20820179094992</v>
+        <v>-0.2560537130221452</v>
       </c>
       <c r="E58">
-        <v>-0.2067356220192678</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.1090129511353724</v>
+      </c>
+      <c r="F58">
+        <v>0.1467331911499443</v>
+      </c>
+      <c r="G58">
+        <v>-0.1644492957611381</v>
+      </c>
+      <c r="H58">
+        <v>0.07696175382552066</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.204381246023854</v>
+        <v>0.2597964570268333</v>
       </c>
       <c r="C59">
-        <v>0.1209588716187409</v>
+        <v>-0.05445892386007851</v>
       </c>
       <c r="D59">
-        <v>-0.04987481332616868</v>
+        <v>-0.04366517998426719</v>
       </c>
       <c r="E59">
-        <v>-0.04322336568522568</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01347477076593577</v>
+      </c>
+      <c r="F59">
+        <v>0.01885059600466554</v>
+      </c>
+      <c r="G59">
+        <v>-0.03208628100018585</v>
+      </c>
+      <c r="H59">
+        <v>-0.03538889654981628</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1752310865328382</v>
+        <v>0.1520403775590538</v>
       </c>
       <c r="C60">
-        <v>-0.1104729482179072</v>
+        <v>0.1672434030559314</v>
       </c>
       <c r="D60">
-        <v>-0.1271761944621639</v>
+        <v>-0.03224901896454298</v>
       </c>
       <c r="E60">
-        <v>0.05807098897581454</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1063554982049981</v>
+      </c>
+      <c r="F60">
+        <v>-0.2057293214786059</v>
+      </c>
+      <c r="G60">
+        <v>0.2501604685118456</v>
+      </c>
+      <c r="H60">
+        <v>-0.1341748276978935</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01962626280074558</v>
+        <v>0.01287665503938614</v>
       </c>
       <c r="C61">
-        <v>-0.06006942968701188</v>
+        <v>0.08250683103863556</v>
       </c>
       <c r="D61">
-        <v>-0.07170015130043859</v>
+        <v>-0.04784830966404115</v>
       </c>
       <c r="E61">
-        <v>-0.01352019863092161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.06738382570266312</v>
+      </c>
+      <c r="F61">
+        <v>-0.0120574193903152</v>
+      </c>
+      <c r="G61">
+        <v>0.0004832821918988556</v>
+      </c>
+      <c r="H61">
+        <v>0.004037644470141146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.009743214172604556</v>
+        <v>0.01573239584390292</v>
       </c>
       <c r="C63">
-        <v>-0.02769691209215853</v>
+        <v>0.0466740061273059</v>
       </c>
       <c r="D63">
-        <v>-0.07443864501799896</v>
+        <v>-0.04376650807729988</v>
       </c>
       <c r="E63">
-        <v>-0.04478368864270147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.0868108664989941</v>
+      </c>
+      <c r="F63">
+        <v>0.02122741564280169</v>
+      </c>
+      <c r="G63">
+        <v>-0.007174930584079298</v>
+      </c>
+      <c r="H63">
+        <v>0.006938094077420339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04548637896912553</v>
+        <v>0.01554838032278994</v>
       </c>
       <c r="C64">
-        <v>-0.09542931756799025</v>
+        <v>0.1053448431849641</v>
       </c>
       <c r="D64">
-        <v>-0.0188185103700217</v>
+        <v>-0.009801429390939247</v>
       </c>
       <c r="E64">
-        <v>-0.03050461120108261</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.03445538030688024</v>
+      </c>
+      <c r="F64">
+        <v>0.0183686519990752</v>
+      </c>
+      <c r="G64">
+        <v>0.02960290082302372</v>
+      </c>
+      <c r="H64">
+        <v>0.04164173022765559</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02522655243618913</v>
+        <v>0.02569413830828406</v>
       </c>
       <c r="C65">
-        <v>-0.02013299906687824</v>
+        <v>0.04548540158054339</v>
       </c>
       <c r="D65">
-        <v>-0.09210257326743014</v>
+        <v>-0.0898360057816583</v>
       </c>
       <c r="E65">
-        <v>-0.04862137138455738</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.07725300089220874</v>
+      </c>
+      <c r="F65">
+        <v>-0.01008224270543359</v>
+      </c>
+      <c r="G65">
+        <v>0.04937229462367426</v>
+      </c>
+      <c r="H65">
+        <v>0.02511323295164732</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01929709235647376</v>
+        <v>0.007781670694970981</v>
       </c>
       <c r="C66">
-        <v>-0.07583343922268083</v>
+        <v>0.1105995213254003</v>
       </c>
       <c r="D66">
-        <v>-0.1232015930101086</v>
+        <v>-0.09914568901282894</v>
       </c>
       <c r="E66">
-        <v>-0.03949524224320122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.09022643444574646</v>
+      </c>
+      <c r="F66">
+        <v>-0.007497460189822144</v>
+      </c>
+      <c r="G66">
+        <v>-0.02423165456465037</v>
+      </c>
+      <c r="H66">
+        <v>0.01449578637566659</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01494148329289575</v>
+        <v>0.01798874202977434</v>
       </c>
       <c r="C67">
-        <v>-0.01981243218425833</v>
+        <v>0.03670420695042884</v>
       </c>
       <c r="D67">
-        <v>-0.0501942995292632</v>
+        <v>-0.0417415893717422</v>
       </c>
       <c r="E67">
-        <v>-0.003143576119152149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.04079003324203299</v>
+      </c>
+      <c r="F67">
+        <v>-0.01877615752933828</v>
+      </c>
+      <c r="G67">
+        <v>-0.007678593885288417</v>
+      </c>
+      <c r="H67">
+        <v>0.0298222175243045</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2138687067806167</v>
+        <v>0.2789510617192472</v>
       </c>
       <c r="C68">
-        <v>0.1324847558202257</v>
+        <v>-0.06738055522357203</v>
       </c>
       <c r="D68">
-        <v>-0.02409023758636805</v>
+        <v>-0.03293158538595851</v>
       </c>
       <c r="E68">
-        <v>-0.02797649558225235</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.009769234499213323</v>
+      </c>
+      <c r="F68">
+        <v>0.02384689542701608</v>
+      </c>
+      <c r="G68">
+        <v>-0.04796555266945179</v>
+      </c>
+      <c r="H68">
+        <v>-0.008368343283300453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04821525605982504</v>
+        <v>0.01445599184281475</v>
       </c>
       <c r="C69">
-        <v>-0.1165641584343307</v>
+        <v>0.1110346899292294</v>
       </c>
       <c r="D69">
-        <v>-0.06913825456514835</v>
+        <v>-0.01818812200256252</v>
       </c>
       <c r="E69">
-        <v>-0.0363778191220402</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01267267881328878</v>
+      </c>
+      <c r="F69">
+        <v>-0.01041528552739175</v>
+      </c>
+      <c r="G69">
+        <v>0.008840756241295012</v>
+      </c>
+      <c r="H69">
+        <v>-0.003621662825899207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2340649427447015</v>
+        <v>0.2722001448411578</v>
       </c>
       <c r="C71">
-        <v>0.1547479944693477</v>
+        <v>-0.08215421027154078</v>
       </c>
       <c r="D71">
-        <v>-0.01796978113061012</v>
+        <v>-0.009900294865068096</v>
       </c>
       <c r="E71">
-        <v>-0.006567647847077339</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.007011401998262326</v>
+      </c>
+      <c r="F71">
+        <v>0.01228022424894165</v>
+      </c>
+      <c r="G71">
+        <v>-0.04258702781410083</v>
+      </c>
+      <c r="H71">
+        <v>0.01489823398314147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0976483596692639</v>
+        <v>0.06369402833866292</v>
       </c>
       <c r="C72">
-        <v>-0.07868763278184769</v>
+        <v>0.1241265107709685</v>
       </c>
       <c r="D72">
-        <v>-0.09628546777888596</v>
+        <v>-0.03968021950971741</v>
       </c>
       <c r="E72">
-        <v>-0.03195755378605298</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08473048842910692</v>
+      </c>
+      <c r="F72">
+        <v>-0.01879865993284894</v>
+      </c>
+      <c r="G72">
+        <v>0.03241746328511114</v>
+      </c>
+      <c r="H72">
+        <v>0.001415898336990076</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1725809936837326</v>
+        <v>0.1577312746969605</v>
       </c>
       <c r="C73">
-        <v>-0.08408440853325432</v>
+        <v>0.1666658848087857</v>
       </c>
       <c r="D73">
-        <v>-0.1968984898079918</v>
+        <v>-0.04823900860239069</v>
       </c>
       <c r="E73">
-        <v>0.09169262979827339</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2610705599330995</v>
+      </c>
+      <c r="F73">
+        <v>-0.3123530912829158</v>
+      </c>
+      <c r="G73">
+        <v>0.4143782731730294</v>
+      </c>
+      <c r="H73">
+        <v>-0.1467076841315088</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.0974786952743369</v>
+        <v>0.05184285012967182</v>
       </c>
       <c r="C74">
-        <v>-0.1223300830906695</v>
+        <v>0.1413462259421588</v>
       </c>
       <c r="D74">
-        <v>0.04569290692237711</v>
+        <v>0.04507924149526149</v>
       </c>
       <c r="E74">
-        <v>-0.01408274753077708</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.03238539087693282</v>
+      </c>
+      <c r="F74">
+        <v>0.03392979532427803</v>
+      </c>
+      <c r="G74">
+        <v>0.003390646928762535</v>
+      </c>
+      <c r="H74">
+        <v>-0.00177085334843448</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2084420375014253</v>
+        <v>0.09755845820382966</v>
       </c>
       <c r="C75">
-        <v>-0.2181781322609493</v>
+        <v>0.2610643837764962</v>
       </c>
       <c r="D75">
-        <v>0.03698641701637771</v>
+        <v>0.1089413512203088</v>
       </c>
       <c r="E75">
-        <v>0.09436683482977412</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1226397212442739</v>
+      </c>
+      <c r="F75">
+        <v>-0.05019858031348187</v>
+      </c>
+      <c r="G75">
+        <v>-0.110981158334349</v>
+      </c>
+      <c r="H75">
+        <v>0.07914144326871168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1268402819067701</v>
+        <v>0.06033782846543163</v>
       </c>
       <c r="C76">
-        <v>-0.1475234451948708</v>
+        <v>0.1782166045348035</v>
       </c>
       <c r="D76">
-        <v>-0.01274738100955615</v>
+        <v>0.04419158841287175</v>
       </c>
       <c r="E76">
-        <v>0.01431327421415405</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04108284034352227</v>
+      </c>
+      <c r="F76">
+        <v>-0.006555601309863501</v>
+      </c>
+      <c r="G76">
+        <v>-0.04703013004530902</v>
+      </c>
+      <c r="H76">
+        <v>0.01583129432183551</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002982230234567993</v>
+        <v>-0.00582616979957706</v>
       </c>
       <c r="C77">
-        <v>-0.08187268910095899</v>
+        <v>0.1190094607865943</v>
       </c>
       <c r="D77">
-        <v>-0.2247195058844707</v>
+        <v>-0.579626978306818</v>
       </c>
       <c r="E77">
-        <v>-0.1751525766439995</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.724774560685939</v>
+      </c>
+      <c r="F77">
+        <v>-0.1441435987590195</v>
+      </c>
+      <c r="G77">
+        <v>0.1872402564863968</v>
+      </c>
+      <c r="H77">
+        <v>-0.006706173885446043</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03117728088169675</v>
+        <v>0.02230543735473773</v>
       </c>
       <c r="C78">
-        <v>-0.07702375298258267</v>
+        <v>0.09572603702563913</v>
       </c>
       <c r="D78">
-        <v>-0.1457424095684772</v>
+        <v>-0.07556287568331602</v>
       </c>
       <c r="E78">
-        <v>-0.107928001909701</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.09204572375249472</v>
+      </c>
+      <c r="F78">
+        <v>0.04364414111630232</v>
+      </c>
+      <c r="G78">
+        <v>-0.09837965944026768</v>
+      </c>
+      <c r="H78">
+        <v>-0.03885049415031912</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1073860495651467</v>
+        <v>0.05125760320000947</v>
       </c>
       <c r="C79">
-        <v>-0.212940952177402</v>
+        <v>0.2175521121529871</v>
       </c>
       <c r="D79">
-        <v>0.5758070963996157</v>
+        <v>0.136846117273826</v>
       </c>
       <c r="E79">
-        <v>-0.6964257515174117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1040746437204237</v>
+      </c>
+      <c r="F79">
+        <v>0.7769149406927292</v>
+      </c>
+      <c r="G79">
+        <v>0.4464202534864021</v>
+      </c>
+      <c r="H79">
+        <v>-0.01803417617478029</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.001485750223547606</v>
+        <v>0.007006760032426691</v>
       </c>
       <c r="C80">
-        <v>-0.04640073136899087</v>
+        <v>0.04630335953071543</v>
       </c>
       <c r="D80">
-        <v>-0.04661306848588312</v>
+        <v>-0.02479141303060798</v>
       </c>
       <c r="E80">
-        <v>-0.01029735091219792</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.06933901250989899</v>
+      </c>
+      <c r="F80">
+        <v>-0.002737242245246288</v>
+      </c>
+      <c r="G80">
+        <v>-0.01350017445477909</v>
+      </c>
+      <c r="H80">
+        <v>-0.09419132845744588</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09730589615186538</v>
+        <v>0.03356617857320392</v>
       </c>
       <c r="C81">
-        <v>-0.1420381884241375</v>
+        <v>0.1584907676459338</v>
       </c>
       <c r="D81">
-        <v>0.07397562523311718</v>
+        <v>0.07016695579694827</v>
       </c>
       <c r="E81">
-        <v>0.01504269959268658</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06028245095962844</v>
+      </c>
+      <c r="F81">
+        <v>0.05318983797567206</v>
+      </c>
+      <c r="G81">
+        <v>-0.06800693644436737</v>
+      </c>
+      <c r="H81">
+        <v>-0.005623511294166975</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2036182194694303</v>
+        <v>0.07813037568517912</v>
       </c>
       <c r="C82">
-        <v>-0.3102067018066009</v>
+        <v>0.2947346363594154</v>
       </c>
       <c r="D82">
-        <v>0.08040391856793909</v>
+        <v>0.203919995536247</v>
       </c>
       <c r="E82">
-        <v>0.2372942358986481</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1257233213824293</v>
+      </c>
+      <c r="F82">
+        <v>-0.1111026440553767</v>
+      </c>
+      <c r="G82">
+        <v>-0.1520546629339026</v>
+      </c>
+      <c r="H82">
+        <v>0.009637660670139145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01479932043537056</v>
+        <v>-0.008096237997427732</v>
       </c>
       <c r="C83">
-        <v>-0.04948080555792486</v>
+        <v>0.0175869233575285</v>
       </c>
       <c r="D83">
-        <v>-0.002939424782973965</v>
+        <v>-0.02505096631292919</v>
       </c>
       <c r="E83">
-        <v>-0.0427085050617514</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.09525207901059368</v>
+      </c>
+      <c r="F83">
+        <v>0.1002037451136276</v>
+      </c>
+      <c r="G83">
+        <v>-0.2449622852466203</v>
+      </c>
+      <c r="H83">
+        <v>-0.8992250669639476</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001168635238188616</v>
+        <v>-0.00438230823129934</v>
       </c>
       <c r="C84">
-        <v>-0.004211249513537146</v>
+        <v>0.01642061854288631</v>
       </c>
       <c r="D84">
-        <v>-0.009667468331048574</v>
+        <v>-0.04243754638822888</v>
       </c>
       <c r="E84">
-        <v>-0.001134375202968806</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.02103049046014878</v>
+      </c>
+      <c r="F84">
+        <v>0.03064086679640946</v>
+      </c>
+      <c r="G84">
+        <v>-0.05385438613543483</v>
+      </c>
+      <c r="H84">
+        <v>0.06057960574425525</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1267060135046739</v>
+        <v>0.05492679245721234</v>
       </c>
       <c r="C85">
-        <v>-0.1552490610128989</v>
+        <v>0.1772131292452908</v>
       </c>
       <c r="D85">
-        <v>0.08785428873037809</v>
+        <v>0.1164542454300782</v>
       </c>
       <c r="E85">
-        <v>0.006309939961803381</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0283766285696413</v>
+      </c>
+      <c r="F85">
+        <v>0.05832040911075683</v>
+      </c>
+      <c r="G85">
+        <v>-0.01838957819655907</v>
+      </c>
+      <c r="H85">
+        <v>0.01895066286704516</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02190152118466885</v>
+        <v>0.01610017462037015</v>
       </c>
       <c r="C86">
-        <v>-0.01194581366057953</v>
+        <v>0.0414625285228462</v>
       </c>
       <c r="D86">
-        <v>-0.1114576417367942</v>
+        <v>-0.1096637660767438</v>
       </c>
       <c r="E86">
-        <v>-0.06614811687819525</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.01693305841541559</v>
+      </c>
+      <c r="F86">
+        <v>0.02399191756068641</v>
+      </c>
+      <c r="G86">
+        <v>0.005020391168664005</v>
+      </c>
+      <c r="H86">
+        <v>0.01470369142847015</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.01974882641360058</v>
+        <v>0.009394017872375655</v>
       </c>
       <c r="C87">
-        <v>-0.03796759863751042</v>
+        <v>0.06820232072423735</v>
       </c>
       <c r="D87">
-        <v>-0.1273619905137336</v>
+        <v>-0.122506311589554</v>
       </c>
       <c r="E87">
-        <v>-0.1050552641327285</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.06567992029933166</v>
+      </c>
+      <c r="F87">
+        <v>0.04651226444242699</v>
+      </c>
+      <c r="G87">
+        <v>-0.08248381493649626</v>
+      </c>
+      <c r="H87">
+        <v>0.006337133992524158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0464710784226855</v>
+        <v>0.03425173660810867</v>
       </c>
       <c r="C88">
-        <v>-0.04898034153458111</v>
+        <v>0.0716367283875768</v>
       </c>
       <c r="D88">
-        <v>-0.00667076082725879</v>
+        <v>-0.01345524101313626</v>
       </c>
       <c r="E88">
-        <v>-0.02567145387976042</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.03812242666654763</v>
+      </c>
+      <c r="F88">
+        <v>0.02192946024667505</v>
+      </c>
+      <c r="G88">
+        <v>0.01008983584357979</v>
+      </c>
+      <c r="H88">
+        <v>0.01004401152512169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3487693594676955</v>
+        <v>0.3979302334287019</v>
       </c>
       <c r="C89">
-        <v>0.2919353796788899</v>
+        <v>-0.1628323863303527</v>
       </c>
       <c r="D89">
-        <v>-0.01997428368974538</v>
+        <v>-0.05023613224306715</v>
       </c>
       <c r="E89">
-        <v>-0.12161700217836</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01886784073512121</v>
+      </c>
+      <c r="F89">
+        <v>0.08098906149426055</v>
+      </c>
+      <c r="G89">
+        <v>-0.09133275033438633</v>
+      </c>
+      <c r="H89">
+        <v>-0.04761827838222468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2784762729471618</v>
+        <v>0.3227497794276439</v>
       </c>
       <c r="C90">
-        <v>0.2110771960389662</v>
+        <v>-0.1030815221725654</v>
       </c>
       <c r="D90">
-        <v>-0.06196856534705418</v>
+        <v>-0.0349391935884438</v>
       </c>
       <c r="E90">
-        <v>-0.01531910648648515</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.002541008139300533</v>
+      </c>
+      <c r="F90">
+        <v>-0.007304178922859326</v>
+      </c>
+      <c r="G90">
+        <v>-0.05296464287023595</v>
+      </c>
+      <c r="H90">
+        <v>-0.00894225210260409</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1328599096530289</v>
+        <v>0.06412992647629268</v>
       </c>
       <c r="C91">
-        <v>-0.1997264992190678</v>
+        <v>0.2024424846708993</v>
       </c>
       <c r="D91">
-        <v>0.09110469085886644</v>
+        <v>0.08981259986078752</v>
       </c>
       <c r="E91">
-        <v>-0.02823459187007986</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.09191668165890129</v>
+      </c>
+      <c r="F91">
+        <v>0.05922930311886158</v>
+      </c>
+      <c r="G91">
+        <v>-0.009661163965143224</v>
+      </c>
+      <c r="H91">
+        <v>-0.02149715369224683</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2685082410367391</v>
+        <v>0.3390605055583787</v>
       </c>
       <c r="C92">
-        <v>0.2395529180850101</v>
+        <v>-0.1437105274737697</v>
       </c>
       <c r="D92">
-        <v>0.03881461638886927</v>
+        <v>-0.03246581453406972</v>
       </c>
       <c r="E92">
-        <v>-0.01962928666536356</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06413745397307773</v>
+      </c>
+      <c r="F92">
+        <v>0.03692391660713325</v>
+      </c>
+      <c r="G92">
+        <v>-0.0005244063330936074</v>
+      </c>
+      <c r="H92">
+        <v>0.1329018860318576</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2966206585284309</v>
+        <v>0.3294750840753587</v>
       </c>
       <c r="C93">
-        <v>0.2171525984945703</v>
+        <v>-0.1177652293205945</v>
       </c>
       <c r="D93">
-        <v>0.01817482053726095</v>
+        <v>0.02250825987470317</v>
       </c>
       <c r="E93">
-        <v>0.009825219583860088</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.004187294569908369</v>
+      </c>
+      <c r="F93">
+        <v>0.009287357293796587</v>
+      </c>
+      <c r="G93">
+        <v>0.02468862041288893</v>
+      </c>
+      <c r="H93">
+        <v>0.02103172218695506</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2487655839518736</v>
+        <v>0.1196742918166668</v>
       </c>
       <c r="C94">
-        <v>-0.2902937503613661</v>
+        <v>0.3206545993064487</v>
       </c>
       <c r="D94">
-        <v>0.1768317213408299</v>
+        <v>0.3334090486619475</v>
       </c>
       <c r="E94">
-        <v>0.3264437373538721</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1792206870685285</v>
+      </c>
+      <c r="F94">
+        <v>-0.1477805790048047</v>
+      </c>
+      <c r="G94">
+        <v>-0.2988412401429406</v>
+      </c>
+      <c r="H94">
+        <v>0.1015664144247143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.004791149757805156</v>
+        <v>0.01402334645114157</v>
       </c>
       <c r="C95">
-        <v>-0.05291340112809896</v>
+        <v>0.07794658641138444</v>
       </c>
       <c r="D95">
-        <v>-0.1016479018028255</v>
+        <v>-0.1407788115438678</v>
       </c>
       <c r="E95">
-        <v>-0.05887184061740143</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.0800674319005006</v>
+      </c>
+      <c r="F95">
+        <v>-0.03765595244666149</v>
+      </c>
+      <c r="G95">
+        <v>0.05746270781689827</v>
+      </c>
+      <c r="H95">
+        <v>0.08684515209635521</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.00250447442556529</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0007973717679737577</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0005809535090723084</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.002754165805507183</v>
+      </c>
+      <c r="F97">
+        <v>-5.535344620679327e-05</v>
+      </c>
+      <c r="G97">
+        <v>-0.0002124407627719272</v>
+      </c>
+      <c r="H97">
+        <v>0.005445823121592684</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.14520634019208</v>
+        <v>0.1336587380789587</v>
       </c>
       <c r="C98">
-        <v>-0.103745036275303</v>
+        <v>0.1649681302503693</v>
       </c>
       <c r="D98">
-        <v>-0.1272784508199805</v>
+        <v>-0.004807583794986394</v>
       </c>
       <c r="E98">
-        <v>0.1079704460489324</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1631193180912784</v>
+      </c>
+      <c r="F98">
+        <v>-0.260088691985186</v>
+      </c>
+      <c r="G98">
+        <v>0.3008263118275841</v>
+      </c>
+      <c r="H98">
+        <v>-0.1245666107450664</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.00405595482629957</v>
+        <v>0.001362938471815636</v>
       </c>
       <c r="C101">
-        <v>-0.02167481320649744</v>
+        <v>0.03901735912258943</v>
       </c>
       <c r="D101">
-        <v>-0.06669633988307108</v>
+        <v>-0.08189880413654534</v>
       </c>
       <c r="E101">
-        <v>-0.05524562791121647</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.1082882720571372</v>
+      </c>
+      <c r="F101">
+        <v>0.03745500629757859</v>
+      </c>
+      <c r="G101">
+        <v>-0.009641534186595297</v>
+      </c>
+      <c r="H101">
+        <v>-0.03853758956443765</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08376929708614289</v>
+        <v>0.019220395620012</v>
       </c>
       <c r="C102">
-        <v>-0.1655603137842998</v>
+        <v>0.1361261233515449</v>
       </c>
       <c r="D102">
-        <v>0.004225023810298822</v>
+        <v>0.08632497034558463</v>
       </c>
       <c r="E102">
-        <v>0.1051737337122094</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.06761322107483184</v>
+      </c>
+      <c r="F102">
+        <v>-0.08259862386631951</v>
+      </c>
+      <c r="G102">
+        <v>-0.01366276359255785</v>
+      </c>
+      <c r="H102">
+        <v>-0.02239346092410199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
